--- a/medicine/Psychotrope/Authentique_Brasserie/Authentique_Brasserie.xlsx
+++ b/medicine/Psychotrope/Authentique_Brasserie/Authentique_Brasserie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Authentique Brasserie est une microbrasserie belge située dans le village  de Blaton faisant partie de la commune de Bernissart en province de Hainaut non loin de la frontière française. Elle brasse principalement les bières Authentique.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La microbrasserie a été lancée en mai 2004 par Frédéric Baert[1]. Les brassins d'origine de 20 litres ont fait place à des brassins de 500 litres. Le nom de cette microbrasserie démontre la volonté qu'a le brasseur de respecter les savoir-faire d'autrefois où tous les ingrédients utilisés sont des produits du terroir[2]. La malterie de Belœil permet à la brasserie de travailler avec six variétés de malt[3].
-En 2023 après 19 ans d'existence, l'Authentique Brasserie est déclaré en faillite[4],[5],[6]. Selon des sources de la part du propriétaire Frédérick Baert, une nouvelle brasserie nommé « Gaston » devrait voir le jour[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La microbrasserie a été lancée en mai 2004 par Frédéric Baert. Les brassins d'origine de 20 litres ont fait place à des brassins de 500 litres. Le nom de cette microbrasserie démontre la volonté qu'a le brasseur de respecter les savoir-faire d'autrefois où tous les ingrédients utilisés sont des produits du terroir. La malterie de Belœil permet à la brasserie de travailler avec six variétés de malt.
+En 2023 après 19 ans d'existence, l'Authentique Brasserie est déclaré en faillite. Selon des sources de la part du propriétaire Frédérick Baert, une nouvelle brasserie nommé « Gaston » devrait voir le jour.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bières originales de la brasserie sont reprises comme Belgian Beer of Wallonia, protection accordée par l'Agence wallonne pour la promotion d'une agriculture de qualité (APAQ-W).
 Authentique Blonde, 6,5 %
@@ -585,9 +601,11 @@
           <t>Source et lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[2]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (nl) Bieren en Brouwerijen van België – Adelijn Calderon – 2009 –  (ISBN 978-90-7713-518-1)</t>
         </is>
       </c>
